--- a/imports/Metodologia.xlsx
+++ b/imports/Metodologia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Limpieza\LIMPIEZA_APP\sop_lavado_app\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4417B2B4-026B-41D6-8505-C7FE8EAAA1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB57FC87-1057-45BF-AC8D-218A7ADE1A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="2" xr2:uid="{5C5D13DF-E461-4B29-A220-9E515729D54F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="170">
   <si>
     <t>BD</t>
   </si>
@@ -184,27 +184,15 @@
     <t>Colocar Señalética</t>
   </si>
   <si>
-    <t>Colocar señalética en la entrada de la subárea</t>
-  </si>
-  <si>
     <t>MB-BS-001-BM</t>
   </si>
   <si>
-    <t>Retirar bolsas y reemplazar por nuevas.</t>
-  </si>
-  <si>
     <t>MB-BS-001-P</t>
   </si>
   <si>
-    <t>Retirar basura, sacudir bote, reemplazar bolsas</t>
-  </si>
-  <si>
     <t>MB-SP-001-P</t>
   </si>
   <si>
-    <t>Despejar, limpiar bordes y esquinas superiores.</t>
-  </si>
-  <si>
     <t>MB-VI-001-P</t>
   </si>
   <si>
@@ -379,9 +367,6 @@
     <t>Consumibles</t>
   </si>
   <si>
-    <t>Reabastecer Consumibles</t>
-  </si>
-  <si>
     <t>MB-CN-001</t>
   </si>
   <si>
@@ -512,6 +497,57 @@
   </si>
   <si>
     <t>fraccion</t>
+  </si>
+  <si>
+    <t>MB-SA-001-B</t>
+  </si>
+  <si>
+    <t>MB-SA-001-M</t>
+  </si>
+  <si>
+    <t>MB-SA-001-P</t>
+  </si>
+  <si>
+    <t>Sacudir-B</t>
+  </si>
+  <si>
+    <t>Sacudir-M</t>
+  </si>
+  <si>
+    <t>Sacudir-P</t>
+  </si>
+  <si>
+    <t>Sacudir</t>
+  </si>
+  <si>
+    <t>FR-SA-001</t>
+  </si>
+  <si>
+    <t>Aplique el químico directamente al paño y utilice la técnica de 8 caras (TM-SA-001).</t>
+  </si>
+  <si>
+    <t>Con una cara húmeda del paño, limpie las superficies asignadas sin mover objetos.</t>
+  </si>
+  <si>
+    <t>Con otra cara seca del paño, retire la humedad y deje el acabado final.</t>
+  </si>
+  <si>
+    <t>Retire de forma controlada los objetos del elemento a limpiar y colóquelos en un área segura.</t>
+  </si>
+  <si>
+    <t>Con otra cara seca del paño, retire la humedad y regrese los objetos a su posición original.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Con una cara húmeda del paño, limpie la superficie, así como las zonas ocultas. Limpie igualmente los objetos permitidos que se encuentran sobre el. </t>
+  </si>
+  <si>
+    <t>Aplique Trapeado Profundo (TM-TA-003): sumerja todo el mechudo en solución limpia, retire y pase por la prensa (presión ligera) hasta eliminar el goteo.</t>
+  </si>
+  <si>
+    <t>Segunda pasada: repita el trapeo lineal para arrastrar suciedad residual y exceso de solución.</t>
+  </si>
+  <si>
+    <t>Tercera pasada: trapee lineal para retirar humedad restante y dejar el piso casi seco, sin charcos.</t>
   </si>
 </sst>
 </file>
@@ -693,7 +729,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -741,6 +777,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -748,6 +790,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -765,29 +813,24 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1153,10 +1196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24225CC1-F221-4701-AFEA-AE4384039BF4}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1169,22 +1212,22 @@
     <col min="7" max="7" width="14.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="28" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="G1" s="18" t="s">
+      <c r="E1" s="23"/>
+      <c r="G1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="19"/>
-    </row>
-    <row r="2" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
@@ -1195,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>1</v>
@@ -1207,21 +1250,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>48</v>
+      <c r="C3" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>13</v>
@@ -1230,21 +1273,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>15</v>
@@ -1253,21 +1296,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -1276,21 +1319,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>54</v>
+        <v>93</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>19</v>
@@ -1299,21 +1342,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>56</v>
+        <v>94</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>21</v>
@@ -1322,21 +1365,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>23</v>
@@ -1345,21 +1388,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>25</v>
@@ -1368,21 +1411,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>26</v>
@@ -1391,21 +1434,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>33</v>
@@ -1414,121 +1457,166 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="5" t="s">
+      <c r="C16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="E16" s="5" t="s">
-        <v>153</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:5" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="4"/>
+      <c r="A18" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+      <c r="A19" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
     <row r="21" spans="1:5" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="22" spans="1:5" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="23" spans="1:5" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1541,13 +1629,13 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H8 H10">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1557,8 +1645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713EC40E-CFCC-4E88-8410-5E71B8B4F27E}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="82" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A7" zoomScale="82" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1568,27 +1656,27 @@
     <col min="3" max="3" width="18.59765625" customWidth="1"/>
     <col min="7" max="7" width="12.86328125" customWidth="1"/>
     <col min="8" max="8" width="8.73046875" customWidth="1"/>
-    <col min="9" max="9" width="11.9296875" customWidth="1"/>
+    <col min="9" max="9" width="14.265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="20" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="27" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="19"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -1604,7 +1692,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>7</v>
@@ -1618,7 +1706,7 @@
       <c r="J2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="26"/>
+      <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
@@ -1631,16 +1719,16 @@
         <v>46</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="25" t="s">
-        <v>144</v>
+      <c r="F3" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>13</v>
@@ -1648,7 +1736,7 @@
       <c r="J3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="26"/>
+      <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
@@ -1661,16 +1749,16 @@
         <v>46</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="25" t="s">
-        <v>144</v>
+      <c r="F4" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>15</v>
@@ -1678,7 +1766,7 @@
       <c r="J4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="26"/>
+      <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
@@ -1691,16 +1779,16 @@
         <v>46</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="25" t="s">
-        <v>144</v>
+      <c r="F5" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>17</v>
@@ -1708,7 +1796,7 @@
       <c r="J5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="26"/>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
@@ -1718,19 +1806,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>149</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>19</v>
@@ -1738,7 +1826,7 @@
       <c r="J6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="26"/>
+      <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
@@ -1748,19 +1836,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>149</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>21</v>
@@ -1768,7 +1856,7 @@
       <c r="J7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="26"/>
+      <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
@@ -1778,19 +1866,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>149</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>23</v>
@@ -1798,7 +1886,7 @@
       <c r="J8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="26"/>
+      <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
@@ -1808,19 +1896,19 @@
         <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="25" t="s">
-        <v>144</v>
+      <c r="F9" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>25</v>
@@ -1828,29 +1916,29 @@
       <c r="J9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="L9" s="26"/>
+      <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B10" s="5">
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="25" t="s">
-        <v>144</v>
+      <c r="F10" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="5" t="s">
@@ -1862,25 +1950,25 @@
     </row>
     <row r="11" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="25" t="s">
-        <v>144</v>
+      <c r="F11" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="7" t="s">
@@ -1892,296 +1980,344 @@
     </row>
     <row r="12" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B12" s="5">
         <v>2</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="25" t="s">
-        <v>144</v>
+      <c r="F12" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H12" s="4"/>
+      <c r="I12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B13" s="5">
         <v>3</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="25" t="s">
-        <v>144</v>
+      <c r="F13" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B14" s="5">
         <v>1</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="25" t="s">
-        <v>144</v>
+      <c r="F14" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B15" s="5">
         <v>2</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="25" t="s">
-        <v>144</v>
+      <c r="F15" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B16" s="5">
         <v>3</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="25" t="s">
-        <v>144</v>
+      <c r="F16" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B17" s="5">
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>111</v>
+      <c r="F17" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B18" s="5">
         <v>2</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="G18" s="30" t="s">
-        <v>111</v>
+      <c r="F18" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B19" s="5">
         <v>3</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>111</v>
+      <c r="F19" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B20" s="5">
         <v>1</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>144</v>
+        <v>87</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B21" s="5">
         <v>2</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>144</v>
+        <v>87</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B22" s="5">
         <v>3</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>144</v>
+        <v>87</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="A23" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="A24" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B24" s="5">
+        <v>2</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="A25" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" s="5">
+        <v>3</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -2238,8 +2374,14 @@
     <mergeCell ref="I1:J1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="J3:J8 J10:J11">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  <conditionalFormatting sqref="J3:J8 J10">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2249,8 +2391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA2C063-C098-4059-B8EE-5F5C8D6DB356}">
   <dimension ref="A1:N90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="74" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2260,29 +2402,29 @@
     <col min="6" max="6" width="11.9296875" customWidth="1"/>
     <col min="7" max="7" width="13.19921875" customWidth="1"/>
     <col min="8" max="8" width="8.19921875" customWidth="1"/>
-    <col min="9" max="9" width="21.3984375" customWidth="1"/>
+    <col min="9" max="9" width="18.59765625" customWidth="1"/>
     <col min="11" max="11" width="16.06640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="22" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
       <c r="G1" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="4"/>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="19"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -2304,7 +2446,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="8" t="s">
@@ -2322,19 +2464,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="25" t="s">
-        <v>144</v>
+      <c r="F3" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H3" s="14"/>
       <c r="I3" s="7" t="s">
@@ -2352,19 +2494,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="25" t="s">
-        <v>144</v>
+      <c r="F4" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="5" t="s">
@@ -2382,19 +2524,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="25" t="s">
-        <v>144</v>
+      <c r="F5" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="7" t="s">
@@ -2412,19 +2554,19 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="25" t="s">
-        <v>144</v>
+      <c r="F6" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="7" t="s">
@@ -2436,25 +2578,25 @@
     </row>
     <row r="7" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="5">
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="25" t="s">
-        <v>144</v>
+      <c r="F7" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="7" t="s">
@@ -2468,25 +2610,25 @@
     </row>
     <row r="8" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="5">
         <v>2</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="25" t="s">
-        <v>144</v>
+      <c r="F8" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="7" t="s">
@@ -2500,25 +2642,25 @@
     </row>
     <row r="9" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="5">
         <v>3</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="25" t="s">
-        <v>144</v>
+      <c r="F9" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="7" t="s">
@@ -2532,7 +2674,7 @@
     </row>
     <row r="10" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
@@ -2541,13 +2683,13 @@
         <v>28</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="25" t="s">
-        <v>144</v>
+      <c r="F10" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>39</v>
@@ -2562,22 +2704,22 @@
     </row>
     <row r="11" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11" s="5">
         <v>2</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="25" t="s">
-        <v>144</v>
+      <c r="F11" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>39</v>
@@ -2592,7 +2734,7 @@
     </row>
     <row r="12" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B12" s="5">
         <v>3</v>
@@ -2601,28 +2743,28 @@
         <v>30</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="25" t="s">
-        <v>144</v>
+      <c r="F12" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" s="5">
         <v>4</v>
@@ -2631,13 +2773,13 @@
         <v>31</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="25" t="s">
-        <v>144</v>
+      <c r="F13" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>39</v>
@@ -2646,7 +2788,7 @@
     </row>
     <row r="14" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B14" s="5">
         <v>5</v>
@@ -2655,13 +2797,13 @@
         <v>29</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="25" t="s">
-        <v>144</v>
+      <c r="F14" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>39</v>
@@ -2670,22 +2812,22 @@
     </row>
     <row r="15" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B15" s="5">
         <v>1</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="25" t="s">
-        <v>144</v>
+      <c r="F15" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>39</v>
@@ -2694,7 +2836,7 @@
     </row>
     <row r="16" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B16" s="5">
         <v>2</v>
@@ -2703,13 +2845,13 @@
         <v>34</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="25" t="s">
-        <v>144</v>
+      <c r="F16" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>39</v>
@@ -2718,7 +2860,7 @@
     </row>
     <row r="17" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B17" s="5">
         <v>3</v>
@@ -2727,13 +2869,13 @@
         <v>35</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="25" t="s">
-        <v>144</v>
+      <c r="F17" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>39</v>
@@ -2742,22 +2884,22 @@
     </row>
     <row r="18" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B18" s="5">
         <v>4</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="25" t="s">
-        <v>144</v>
+      <c r="F18" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>39</v>
@@ -2766,22 +2908,22 @@
     </row>
     <row r="19" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B19" s="5">
         <v>1</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="25" t="s">
-        <v>144</v>
+      <c r="F19" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>39</v>
@@ -2790,22 +2932,22 @@
     </row>
     <row r="20" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B20" s="5">
         <v>2</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="25" t="s">
-        <v>144</v>
+      <c r="F20" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>39</v>
@@ -2814,22 +2956,22 @@
     </row>
     <row r="21" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B21" s="5">
         <v>3</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="25" t="s">
-        <v>144</v>
+      <c r="F21" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>39</v>
@@ -2838,22 +2980,22 @@
     </row>
     <row r="22" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B22" s="5">
         <v>4</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="25" t="s">
-        <v>144</v>
+      <c r="F22" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>39</v>
@@ -2863,22 +3005,22 @@
     </row>
     <row r="23" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B23" s="5">
         <v>5</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="25" t="s">
-        <v>144</v>
+      <c r="F23" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>39</v>
@@ -2887,22 +3029,22 @@
     </row>
     <row r="24" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B24" s="5">
         <v>6</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="25" t="s">
-        <v>144</v>
+      <c r="F24" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>39</v>
@@ -2911,22 +3053,22 @@
     </row>
     <row r="25" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B25" s="5">
         <v>1</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="25" t="s">
-        <v>144</v>
+      <c r="F25" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>37</v>
@@ -2935,22 +3077,22 @@
     </row>
     <row r="26" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B26" s="5">
         <v>2</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="25" t="s">
-        <v>144</v>
+      <c r="F26" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>37</v>
@@ -2959,22 +3101,22 @@
     </row>
     <row r="27" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B27" s="5">
         <v>3</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="25" t="s">
-        <v>144</v>
+      <c r="F27" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>37</v>
@@ -2983,22 +3125,22 @@
     </row>
     <row r="28" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B28" s="5">
         <v>1</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="25" t="s">
-        <v>144</v>
+      <c r="F28" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>38</v>
@@ -3007,22 +3149,22 @@
     </row>
     <row r="29" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B29" s="5">
         <v>2</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="25" t="s">
-        <v>144</v>
+      <c r="F29" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>38</v>
@@ -3031,22 +3173,22 @@
     </row>
     <row r="30" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B30" s="5">
         <v>3</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="25" t="s">
-        <v>144</v>
+      <c r="F30" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>38</v>
@@ -3055,22 +3197,22 @@
     </row>
     <row r="31" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B31" s="5">
         <v>4</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="25" t="s">
-        <v>144</v>
+      <c r="F31" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>38</v>
@@ -3079,22 +3221,22 @@
     </row>
     <row r="32" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B32" s="5">
         <v>1</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="25" t="s">
-        <v>144</v>
+      <c r="F32" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>39</v>
@@ -3103,22 +3245,22 @@
     </row>
     <row r="33" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B33" s="5">
         <v>2</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="25" t="s">
-        <v>144</v>
+      <c r="F33" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>39</v>
@@ -3127,22 +3269,22 @@
     </row>
     <row r="34" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B34" s="5">
         <v>3</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="25" t="s">
-        <v>144</v>
+      <c r="F34" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>39</v>
@@ -3151,22 +3293,22 @@
     </row>
     <row r="35" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B35" s="5">
         <v>4</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="25" t="s">
-        <v>144</v>
+      <c r="F35" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>39</v>
@@ -3175,22 +3317,22 @@
     </row>
     <row r="36" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B36" s="5">
         <v>1</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F36" s="25" t="s">
-        <v>144</v>
+      <c r="F36" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>37</v>
@@ -3199,22 +3341,22 @@
     </row>
     <row r="37" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B37" s="5">
         <v>2</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="25" t="s">
-        <v>144</v>
+      <c r="F37" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>37</v>
@@ -3223,22 +3365,22 @@
     </row>
     <row r="38" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B38" s="5">
         <v>3</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="25" t="s">
-        <v>144</v>
+      <c r="F38" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>37</v>
@@ -3247,22 +3389,22 @@
     </row>
     <row r="39" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B39" s="5">
         <v>4</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="25" t="s">
-        <v>144</v>
+      <c r="F39" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>37</v>
@@ -3271,22 +3413,22 @@
     </row>
     <row r="40" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B40" s="5">
         <v>1</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F40" s="25" t="s">
-        <v>144</v>
+      <c r="F40" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>38</v>
@@ -3295,22 +3437,22 @@
     </row>
     <row r="41" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B41" s="5">
         <v>2</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F41" s="25" t="s">
-        <v>144</v>
+      <c r="F41" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>38</v>
@@ -3319,22 +3461,22 @@
     </row>
     <row r="42" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B42" s="5">
         <v>3</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F42" s="25" t="s">
-        <v>144</v>
+      <c r="F42" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>38</v>
@@ -3343,22 +3485,22 @@
     </row>
     <row r="43" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B43" s="5">
         <v>4</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F43" s="25" t="s">
-        <v>144</v>
+      <c r="F43" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>38</v>
@@ -3367,22 +3509,22 @@
     </row>
     <row r="44" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B44" s="5">
         <v>5</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F44" s="25" t="s">
-        <v>144</v>
+      <c r="F44" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>38</v>
@@ -3391,22 +3533,22 @@
     </row>
     <row r="45" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B45" s="5">
         <v>1</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F45" s="25" t="s">
-        <v>144</v>
+      <c r="F45" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>39</v>
@@ -3415,22 +3557,22 @@
     </row>
     <row r="46" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B46" s="5">
         <v>2</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F46" s="25" t="s">
-        <v>144</v>
+      <c r="F46" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>39</v>
@@ -3439,22 +3581,22 @@
     </row>
     <row r="47" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B47" s="5">
         <v>3</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F47" s="25" t="s">
-        <v>144</v>
+      <c r="F47" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>39</v>
@@ -3463,469 +3605,887 @@
     </row>
     <row r="48" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B48" s="5">
         <v>4</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F48" s="25" t="s">
-        <v>144</v>
+      <c r="F48" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H48" s="16"/>
     </row>
-    <row r="49" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B49" s="5">
         <v>5</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F49" s="25" t="s">
-        <v>144</v>
+      <c r="F49" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H49" s="16"/>
     </row>
-    <row r="50" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B50" s="5">
         <v>1</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F50" s="25" t="s">
-        <v>144</v>
+      <c r="F50" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>37</v>
       </c>
       <c r="H50" s="16"/>
     </row>
-    <row r="51" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B51" s="5">
         <v>2</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F51" s="25" t="s">
-        <v>144</v>
+      <c r="F51" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>37</v>
       </c>
       <c r="H51" s="16"/>
     </row>
-    <row r="52" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B52" s="5">
         <v>3</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F52" s="25" t="s">
-        <v>144</v>
+      <c r="F52" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>37</v>
       </c>
       <c r="H52" s="16"/>
     </row>
-    <row r="53" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B53" s="5">
         <v>4</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F53" s="25" t="s">
-        <v>144</v>
+      <c r="F53" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>37</v>
       </c>
       <c r="H53" s="16"/>
     </row>
-    <row r="54" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B54" s="5">
         <v>5</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F54" s="25" t="s">
-        <v>144</v>
+      <c r="F54" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>37</v>
       </c>
       <c r="H54" s="16"/>
     </row>
-    <row r="55" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B55" s="5">
         <v>1</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F55" s="25" t="s">
-        <v>144</v>
+      <c r="F55" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H55" s="16"/>
     </row>
-    <row r="56" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B56" s="5">
         <v>2</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F56" s="25" t="s">
-        <v>144</v>
+      <c r="F56" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H56" s="16"/>
     </row>
-    <row r="57" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B57" s="5">
         <v>3</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F57" s="25" t="s">
-        <v>144</v>
+      <c r="F57" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H57" s="16"/>
     </row>
-    <row r="58" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B58" s="5">
         <v>4</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F58" s="25" t="s">
-        <v>144</v>
+      <c r="F58" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H58" s="16"/>
     </row>
-    <row r="59" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B59" s="5">
         <v>5</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F59" s="25" t="s">
-        <v>144</v>
+      <c r="F59" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B60" s="5">
+    <row r="60" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B60" s="29">
         <v>1</v>
       </c>
       <c r="C60" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+    </row>
+    <row r="61" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B61" s="29">
+        <v>2</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+    </row>
+    <row r="62" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62" s="29">
+        <v>3</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+    </row>
+    <row r="63" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B63" s="29">
+        <v>4</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+    </row>
+    <row r="64" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B64" s="29">
+        <v>5</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+    </row>
+    <row r="65" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B65" s="29">
+        <v>6</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+    </row>
+    <row r="66" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B66" s="29">
+        <v>7</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+    </row>
+    <row r="67" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B67" s="5">
+        <v>1</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F67" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I67" s="4"/>
+    </row>
+    <row r="68" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B68" s="5">
+        <v>2</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F68" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I68" s="4"/>
+    </row>
+    <row r="69" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B69" s="5">
+        <v>3</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F69" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+    </row>
+    <row r="70" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B70" s="5">
+        <v>4</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F70" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+    </row>
+    <row r="71" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B71" s="5">
+        <v>5</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F71" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+    </row>
+    <row r="72" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B72" s="5">
+        <v>6</v>
+      </c>
+      <c r="C72" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F60" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H60" s="12"/>
-    </row>
-    <row r="61" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B61" s="5">
+      <c r="D72" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F72" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+    </row>
+    <row r="73" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B73" s="5">
+        <v>1</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+    </row>
+    <row r="74" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B74" s="5">
         <v>2</v>
       </c>
-      <c r="C61" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F61" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H61" s="12"/>
-    </row>
-    <row r="62" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B62" s="5">
+      <c r="C74" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+    </row>
+    <row r="75" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B75" s="5">
         <v>3</v>
       </c>
-      <c r="C62" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F62" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H62" s="12"/>
-    </row>
-    <row r="63" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B63" s="5">
+      <c r="C75" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+    </row>
+    <row r="76" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B76" s="5">
+        <v>1</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" s="5">
+        <v>2</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" s="5">
+        <v>3</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A79" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79" s="5">
+        <v>1</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A80" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B80" s="5">
+        <v>2</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A81" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B81" s="5">
+        <v>3</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A82" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B82" s="5">
         <v>4</v>
       </c>
-      <c r="C63" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F63" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H63" s="12"/>
-    </row>
-    <row r="64" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B64" s="5">
-        <v>5</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F64" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H64" s="12"/>
-    </row>
-    <row r="65" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B65" s="5">
-        <v>6</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F65" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H65" s="12"/>
-    </row>
-    <row r="66" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="26"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
-    </row>
-    <row r="67" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="68" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="69" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="70" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="71" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="72" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="73" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="74" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="75" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="76" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="77" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="78" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="79" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="80" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="81" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="82" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="83" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="84" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="85" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="86" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="87" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="88" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="89" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="90" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+      <c r="C82" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="84" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="85" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="86" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="87" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="88" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="89" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="90" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:F1"/>

--- a/imports/Metodologia.xlsx
+++ b/imports/Metodologia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Limpieza\LIMPIEZA_APP\sop_lavado_app\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB57FC87-1057-45BF-AC8D-218A7ADE1A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B2D063-B779-4F75-B17F-AC01DDAD2ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="2" xr2:uid="{5C5D13DF-E461-4B29-A220-9E515729D54F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="171">
   <si>
     <t>BD</t>
   </si>
@@ -526,9 +526,6 @@
     <t>Aplique el químico directamente al paño y utilice la técnica de 8 caras (TM-SA-001).</t>
   </si>
   <si>
-    <t>Con una cara húmeda del paño, limpie las superficies asignadas sin mover objetos.</t>
-  </si>
-  <si>
     <t>Con otra cara seca del paño, retire la humedad y deje el acabado final.</t>
   </si>
   <si>
@@ -538,9 +535,6 @@
     <t>Con otra cara seca del paño, retire la humedad y regrese los objetos a su posición original.</t>
   </si>
   <si>
-    <t xml:space="preserve">Con una cara húmeda del paño, limpie la superficie, así como las zonas ocultas. Limpie igualmente los objetos permitidos que se encuentran sobre el. </t>
-  </si>
-  <si>
     <t>Aplique Trapeado Profundo (TM-TA-003): sumerja todo el mechudo en solución limpia, retire y pase por la prensa (presión ligera) hasta eliminar el goteo.</t>
   </si>
   <si>
@@ -548,6 +542,15 @@
   </si>
   <si>
     <t>Tercera pasada: trapee lineal para retirar humedad restante y dejar el piso casi seco, sin charcos.</t>
+  </si>
+  <si>
+    <t>Con una cara húmeda del paño, limpie los elementos asignados. No mueva ni levante los objetos colocados sobre ellos.</t>
+  </si>
+  <si>
+    <t>Con una cara húmeda del paño, limpie los elementos asignados. Mueva los objetos solo para limpiar la superficie, sin limpiarlos ni sacudirlos.</t>
+  </si>
+  <si>
+    <t>Con una cara húmeda del paño, limpie la superficie asignada, incluyendo las zonas de difícil acceso u ocultas. Limpie también los objetos autorizados retirados</t>
   </si>
 </sst>
 </file>
@@ -729,7 +732,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -811,9 +814,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2391,8 +2391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA2C063-C098-4059-B8EE-5F5C8D6DB356}">
   <dimension ref="A1:N90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="74" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="74" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3892,14 +3892,14 @@
       <c r="H59" s="12"/>
     </row>
     <row r="60" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="29" t="s">
+      <c r="A60" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B60" s="29">
+      <c r="B60" s="5">
         <v>1</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>138</v>
@@ -3919,10 +3919,10 @@
       <c r="K60" s="12"/>
     </row>
     <row r="61" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="29" t="s">
+      <c r="A61" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B61" s="29">
+      <c r="B61" s="5">
         <v>2</v>
       </c>
       <c r="C61" s="7" t="s">
@@ -3946,10 +3946,10 @@
       <c r="K61" s="12"/>
     </row>
     <row r="62" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="29" t="s">
+      <c r="A62" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B62" s="29">
+      <c r="B62" s="5">
         <v>3</v>
       </c>
       <c r="C62" s="7" t="s">
@@ -3973,14 +3973,14 @@
       <c r="K62" s="12"/>
     </row>
     <row r="63" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="29" t="s">
+      <c r="A63" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B63" s="29">
+      <c r="B63" s="5">
         <v>4</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>138</v>
@@ -4000,10 +4000,10 @@
       <c r="K63" s="12"/>
     </row>
     <row r="64" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="29" t="s">
+      <c r="A64" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B64" s="29">
+      <c r="B64" s="5">
         <v>5</v>
       </c>
       <c r="C64" s="7" t="s">
@@ -4027,14 +4027,14 @@
       <c r="K64" s="12"/>
     </row>
     <row r="65" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="29" t="s">
+      <c r="A65" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B65" s="29">
+      <c r="B65" s="5">
         <v>6</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>138</v>
@@ -4054,10 +4054,10 @@
       <c r="K65" s="12"/>
     </row>
     <row r="66" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="29" t="s">
+      <c r="A66" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B66" s="29">
+      <c r="B66" s="5">
         <v>7</v>
       </c>
       <c r="C66" s="7" t="s">
@@ -4271,7 +4271,7 @@
         <v>2</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>138</v>
@@ -4298,7 +4298,7 @@
         <v>3</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>138</v>
@@ -4347,8 +4347,8 @@
       <c r="B77" s="5">
         <v>2</v>
       </c>
-      <c r="C77" s="7" t="s">
-        <v>162</v>
+      <c r="C77" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>138</v>
@@ -4371,7 +4371,7 @@
         <v>3</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>138</v>
@@ -4394,7 +4394,7 @@
         <v>1</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>138</v>
@@ -4440,7 +4440,7 @@
         <v>3</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>138</v>
@@ -4463,7 +4463,7 @@
         <v>4</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>138</v>

--- a/imports/Metodologia.xlsx
+++ b/imports/Metodologia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Limpieza\LIMPIEZA_APP\sop_lavado_app\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B2D063-B779-4F75-B17F-AC01DDAD2ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B866B7-5F21-40F3-A7D4-151ED0782980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="2" xr2:uid="{5C5D13DF-E461-4B29-A220-9E515729D54F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="182">
   <si>
     <t>BD</t>
   </si>
@@ -247,24 +247,6 @@
     <t>Cambiar la funda de microfibra cuando este visiblemente sucia o llena de polvo.</t>
   </si>
   <si>
-    <t>Vidrios altos: Aplique el químico uniformemente sobre el mop de vidrios (TM-VI-02) y ajuste bastón retractil de acuerdo a la altura requerida.</t>
-  </si>
-  <si>
-    <t>Coloque el mop de vidrios en el área a limpiar, asegurando contacto completo con el vidrio, manteniendo presión ligera y uniforme.</t>
-  </si>
-  <si>
-    <t>Comenzar a limpiar de arriba hacia abajo y de izquierda a derecha hasta cubrir completamente la superficie alcanzable.</t>
-  </si>
-  <si>
-    <t>Vidrios medios e inferiores: Aplique el químico directamente sobre la microfibra y prepare el paño utilizando la técnica de 8 caras (TM-SA-001).</t>
-  </si>
-  <si>
-    <t>Limpie el vidrio de arriba hacia abajo y de izquierda a derecha utilizando la técnica (TM-VI-001) una cara húmeda de la microfibra; cambiar cara cuando esté sucia.</t>
-  </si>
-  <si>
-    <t>Revise el vidrio contra la luz y corrija irregularidades utilizando la técnica de 8 caras (TM-SA-001).</t>
-  </si>
-  <si>
     <t>No mueva muebles ni objetos; solo se barrerán las áreas visibles.</t>
   </si>
   <si>
@@ -551,6 +533,57 @@
   </si>
   <si>
     <t>Con una cara húmeda del paño, limpie la superficie asignada, incluyendo las zonas de difícil acceso u ocultas. Limpie también los objetos autorizados retirados</t>
+  </si>
+  <si>
+    <t>Aplique el químico uniformemente sobre el mop de vidrios y ajuste el bastón retráctil de acuerdo a la altura requerida.</t>
+  </si>
+  <si>
+    <t>Coloque el mop de vidrios en el área a limpiar, asegurando contacto completo con el vidrio.</t>
+  </si>
+  <si>
+    <t>Comience a limpiar de arriba hacia abajo y de izquierda a derecha utilizando la técnica (TM-VI-001) hasta cubrir completamente la superficie alcanzable.</t>
+  </si>
+  <si>
+    <t>Revise el vidrio contra la luz y corrija irregularidades repitiendo el pase en la zona afectada hasta eliminar marcas o residuos.</t>
+  </si>
+  <si>
+    <t>ACOMODAR</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>MB-AC-001</t>
+  </si>
+  <si>
+    <t>Acomodar Trastes</t>
+  </si>
+  <si>
+    <t>FR-AC-001</t>
+  </si>
+  <si>
+    <t>Verifique que los trastes colocados en el escurridor estén completamente secos.</t>
+  </si>
+  <si>
+    <t>Retire las tazas y utensilios secos del escurridor y colóquelos en su lugar correspondiente.</t>
+  </si>
+  <si>
+    <t>FR-TA-001</t>
+  </si>
+  <si>
+    <t>Lavar Trastes</t>
+  </si>
+  <si>
+    <t>MB-TA-001</t>
+  </si>
+  <si>
+    <t>Prepare la solución de lavado en un contenedor y lave cada traste por separado con la esponja.</t>
+  </si>
+  <si>
+    <t>Enjuague los trastes con agua limpia y colóquelos en el escurridor para que sequen.</t>
+  </si>
+  <si>
+    <t>Limpie la tarja de la cocina con el paño de microfibra asignado, retire los residuos del colador y deje la tarja seca.</t>
   </si>
 </sst>
 </file>
@@ -650,7 +683,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -698,12 +731,8 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -711,19 +740,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -732,7 +748,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -789,13 +805,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -816,11 +826,70 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1198,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24225CC1-F221-4701-AFEA-AE4384039BF4}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1218,14 +1287,14 @@
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="G1" s="20" t="s">
+      <c r="E1" s="21"/>
+      <c r="G1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="21"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -1238,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>1</v>
@@ -1261,10 +1330,10 @@
         <v>25</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>13</v>
@@ -1278,16 +1347,16 @@
         <v>48</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>15</v>
@@ -1301,16 +1370,16 @@
         <v>49</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -1324,16 +1393,16 @@
         <v>50</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>19</v>
@@ -1347,7 +1416,7 @@
         <v>51</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>23</v>
@@ -1356,7 +1425,7 @@
         <v>52</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>21</v>
@@ -1370,7 +1439,7 @@
         <v>53</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>15</v>
@@ -1379,7 +1448,7 @@
         <v>54</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>23</v>
@@ -1393,7 +1462,7 @@
         <v>55</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>15</v>
@@ -1402,7 +1471,7 @@
         <v>54</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>25</v>
@@ -1416,7 +1485,7 @@
         <v>56</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>15</v>
@@ -1425,7 +1494,7 @@
         <v>54</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>26</v>
@@ -1436,19 +1505,19 @@
     </row>
     <row r="11" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>33</v>
@@ -1459,183 +1528,224 @@
     </row>
     <row r="12" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:5" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="22" spans="1:5" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
     <row r="23" spans="1:5" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="24" spans="1:5" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="25" spans="1:5" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="D1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H3:H8 H10">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="duplicateValues" dxfId="15" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H8">
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1643,10 +1753,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713EC40E-CFCC-4E88-8410-5E71B8B4F27E}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="82" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A5" zoomScale="82" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1654,29 +1764,29 @@
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="18.59765625" customWidth="1"/>
-    <col min="7" max="7" width="12.86328125" customWidth="1"/>
+    <col min="7" max="7" width="15.3984375" customWidth="1"/>
     <col min="8" max="8" width="8.73046875" customWidth="1"/>
     <col min="9" max="9" width="14.265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="24" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
       <c r="G1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="21"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -1692,7 +1802,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>7</v>
@@ -1719,16 +1829,16 @@
         <v>46</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>13</v>
@@ -1749,16 +1859,16 @@
         <v>46</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>15</v>
@@ -1779,16 +1889,16 @@
         <v>46</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>17</v>
@@ -1809,16 +1919,16 @@
         <v>48</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>19</v>
@@ -1839,16 +1949,16 @@
         <v>48</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>21</v>
@@ -1869,16 +1979,16 @@
         <v>49</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>23</v>
@@ -1899,16 +2009,16 @@
         <v>50</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>25</v>
@@ -1920,7 +2030,7 @@
     </row>
     <row r="10" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B10" s="5">
         <v>3</v>
@@ -1929,13 +2039,13 @@
         <v>51</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>52</v>
@@ -1950,7 +2060,7 @@
     </row>
     <row r="11" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
@@ -1959,13 +2069,13 @@
         <v>53</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>54</v>
@@ -1980,7 +2090,7 @@
     </row>
     <row r="12" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B12" s="5">
         <v>2</v>
@@ -1989,28 +2099,28 @@
         <v>55</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>54</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B13" s="5">
         <v>3</v>
@@ -2019,353 +2129,470 @@
         <v>56</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>54</v>
       </c>
       <c r="H13" s="4"/>
+      <c r="I13" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B14" s="5">
         <v>1</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B15" s="5">
         <v>2</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5">
         <v>3</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B17" s="5">
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B18" s="5">
         <v>2</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5">
         <v>3</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B20" s="5">
         <v>1</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B21" s="5">
         <v>2</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B22" s="5">
         <v>3</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B23" s="5">
         <v>1</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B24" s="5">
         <v>2</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B25" s="5">
         <v>3</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="A26" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B26" s="5">
+        <v>1</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="A27" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B27" s="5">
+        <v>2</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="A28" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B28" s="5">
+        <v>3</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="A29" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" s="5">
+        <v>1</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>177</v>
+      </c>
       <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="A30" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30" s="28">
+        <v>2</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>177</v>
+      </c>
       <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" s="28">
+        <v>3</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="33" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="34" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="35" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="36" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="37" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="38" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="39" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="40" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="41" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="42" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="43" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="1048576" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F1048576" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2389,10 +2616,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA2C063-C098-4059-B8EE-5F5C8D6DB356}">
-  <dimension ref="A1:N90"/>
+  <dimension ref="A1:Q90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="74" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="74" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2407,24 +2634,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="26" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
       <c r="G1" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="4"/>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="21"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -2446,7 +2673,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="8" t="s">
@@ -2467,13 +2694,13 @@
         <v>59</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>57</v>
@@ -2497,13 +2724,13 @@
         <v>60</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>57</v>
@@ -2527,13 +2754,13 @@
         <v>61</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>57</v>
@@ -2557,13 +2784,13 @@
         <v>62</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>57</v>
@@ -2587,13 +2814,13 @@
         <v>63</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>58</v>
@@ -2619,13 +2846,13 @@
         <v>64</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>58</v>
@@ -2651,13 +2878,13 @@
         <v>65</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>58</v>
@@ -2683,13 +2910,13 @@
         <v>28</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>39</v>
@@ -2713,13 +2940,13 @@
         <v>66</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>39</v>
@@ -2743,23 +2970,23 @@
         <v>30</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
@@ -2773,18 +3000,24 @@
         <v>31</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H13" s="4"/>
+      <c r="I13" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="14" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
@@ -2797,13 +3030,13 @@
         <v>29</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>39</v>
@@ -2821,13 +3054,13 @@
         <v>67</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>39</v>
@@ -2845,13 +3078,13 @@
         <v>34</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>39</v>
@@ -2869,13 +3102,13 @@
         <v>35</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>39</v>
@@ -2893,13 +3126,13 @@
         <v>68</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>39</v>
@@ -2913,17 +3146,17 @@
       <c r="B19" s="5">
         <v>1</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>69</v>
+      <c r="C19" s="16" t="s">
+        <v>165</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>39</v>
@@ -2938,16 +3171,16 @@
         <v>2</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>39</v>
@@ -2962,16 +3195,16 @@
         <v>3</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>71</v>
+        <v>167</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>39</v>
@@ -2986,16 +3219,16 @@
         <v>4</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>39</v>
@@ -3005,49 +3238,49 @@
     </row>
     <row r="23" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B23" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B24" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H24" s="4"/>
     </row>
@@ -3056,19 +3289,19 @@
         <v>53</v>
       </c>
       <c r="B25" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>37</v>
@@ -3077,49 +3310,49 @@
     </row>
     <row r="26" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B26" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B27" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H27" s="4"/>
     </row>
@@ -3128,19 +3361,19 @@
         <v>55</v>
       </c>
       <c r="B28" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>38</v>
@@ -3152,19 +3385,19 @@
         <v>55</v>
       </c>
       <c r="B29" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>38</v>
@@ -3173,49 +3406,49 @@
     </row>
     <row r="30" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B30" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B31" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H31" s="4"/>
     </row>
@@ -3224,19 +3457,19 @@
         <v>56</v>
       </c>
       <c r="B32" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>39</v>
@@ -3248,19 +3481,19 @@
         <v>56</v>
       </c>
       <c r="B33" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>39</v>
@@ -3269,70 +3502,70 @@
     </row>
     <row r="34" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="B34" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="B35" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B36" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>37</v>
@@ -3341,22 +3574,22 @@
     </row>
     <row r="37" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B37" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>37</v>
@@ -3365,70 +3598,70 @@
     </row>
     <row r="38" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B38" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>37</v>
+        <v>133</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B39" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>37</v>
+        <v>133</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B40" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>38</v>
@@ -3437,22 +3670,22 @@
     </row>
     <row r="41" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B41" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>38</v>
@@ -3461,22 +3694,22 @@
     </row>
     <row r="42" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B42" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>38</v>
@@ -3485,70 +3718,70 @@
     </row>
     <row r="43" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B43" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>38</v>
+        <v>133</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="H43" s="16"/>
     </row>
     <row r="44" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B44" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>38</v>
+        <v>133</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="H44" s="16"/>
     </row>
     <row r="45" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B45" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>39</v>
@@ -3557,22 +3790,22 @@
     </row>
     <row r="46" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B46" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>118</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>39</v>
@@ -3581,22 +3814,22 @@
     </row>
     <row r="47" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B47" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>39</v>
@@ -3605,70 +3838,70 @@
     </row>
     <row r="48" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B48" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>20</v>
+        <v>132</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>39</v>
+        <v>133</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="H48" s="16"/>
     </row>
     <row r="49" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B49" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>20</v>
+        <v>132</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>39</v>
+        <v>133</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="H49" s="16"/>
     </row>
     <row r="50" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B50" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>37</v>
@@ -3677,22 +3910,22 @@
     </row>
     <row r="51" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B51" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>37</v>
@@ -3701,22 +3934,22 @@
     </row>
     <row r="52" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B52" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>37</v>
@@ -3725,70 +3958,70 @@
     </row>
     <row r="53" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B53" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H53" s="16"/>
     </row>
     <row r="54" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B54" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H54" s="16"/>
     </row>
     <row r="55" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B55" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>38</v>
@@ -3797,22 +4030,22 @@
     </row>
     <row r="56" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B56" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>38</v>
@@ -3821,22 +4054,22 @@
     </row>
     <row r="57" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B57" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>38</v>
@@ -3845,70 +4078,70 @@
     </row>
     <row r="58" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B58" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H58" s="16"/>
     </row>
     <row r="59" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B59" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H59" s="12"/>
     </row>
     <row r="60" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B60" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>39</v>
@@ -3920,22 +4153,22 @@
     </row>
     <row r="61" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B61" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>39</v>
@@ -3947,22 +4180,22 @@
     </row>
     <row r="62" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B62" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>39</v>
@@ -3974,22 +4207,22 @@
     </row>
     <row r="63" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B63" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F63" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>39</v>
@@ -4001,22 +4234,22 @@
     </row>
     <row r="64" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B64" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>39</v>
@@ -4031,22 +4264,22 @@
         <v>103</v>
       </c>
       <c r="B65" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>39</v>
+        <v>133</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="H65" s="12"/>
       <c r="I65" s="12"/>
@@ -4058,22 +4291,22 @@
         <v>103</v>
       </c>
       <c r="B66" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>39</v>
+        <v>133</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="H66" s="12"/>
       <c r="I66" s="12"/>
@@ -4082,22 +4315,22 @@
     </row>
     <row r="67" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B67" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>57</v>
@@ -4106,22 +4339,22 @@
     </row>
     <row r="68" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B68" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>57</v>
@@ -4130,22 +4363,22 @@
     </row>
     <row r="69" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B69" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>57</v>
@@ -4157,22 +4390,22 @@
     </row>
     <row r="70" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B70" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>57</v>
@@ -4184,25 +4417,25 @@
     </row>
     <row r="71" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="5" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="B71" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>87</v>
+        <v>132</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F71" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>57</v>
+        <v>133</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
@@ -4211,25 +4444,25 @@
     </row>
     <row r="72" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="5" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="B72" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>87</v>
+        <v>132</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F72" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>57</v>
+        <v>133</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
@@ -4238,22 +4471,22 @@
     </row>
     <row r="73" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B73" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F73" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>37</v>
@@ -4265,25 +4498,25 @@
     </row>
     <row r="74" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B74" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F74" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
@@ -4292,25 +4525,25 @@
     </row>
     <row r="75" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B75" s="5">
-        <v>3</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>162</v>
+        <v>2</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F75" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
@@ -4319,22 +4552,22 @@
     </row>
     <row r="76" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B76" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F76" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>38</v>
@@ -4342,68 +4575,68 @@
     </row>
     <row r="77" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B77" s="5">
-        <v>2</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>169</v>
+        <v>1</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>38</v>
+        <v>133</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B78" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F78" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>38</v>
+        <v>133</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B79" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F79" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>39</v>
@@ -4411,81 +4644,156 @@
     </row>
     <row r="80" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B80" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F80" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A81" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B81" s="5">
+    <row r="81" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A81" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="B81" s="28">
+        <v>1</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D81" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E81" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="F81" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="G81" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A82" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="B82" s="28">
+        <v>2</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D82" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E82" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="F82" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="G82" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A83" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B83" s="28">
+        <v>1</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D83" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E83" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F83" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="G83" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="I83" s="33"/>
+      <c r="J83" s="31"/>
+      <c r="K83" s="31"/>
+      <c r="L83" s="31"/>
+      <c r="M83" s="31"/>
+      <c r="N83" s="31"/>
+      <c r="O83" s="31"/>
+      <c r="P83" s="31"/>
+      <c r="Q83" s="32"/>
+    </row>
+    <row r="84" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A84" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B84" s="28">
+        <v>2</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D84" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E84" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F84" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="G84" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A85" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B85" s="28">
         <v>3</v>
       </c>
-      <c r="C81" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B82" s="5">
-        <v>4</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="84" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="85" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="86" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="87" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="88" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="89" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="90" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+      <c r="C85" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D85" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E85" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F85" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="G85" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="87" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="88" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="89" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="90" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:F1"/>

--- a/imports/Metodologia.xlsx
+++ b/imports/Metodologia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Limpieza\LIMPIEZA_APP\sop_lavado_app\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B866B7-5F21-40F3-A7D4-151ED0782980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D948D432-641D-486F-98A2-AA4DF98D0EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="2" xr2:uid="{5C5D13DF-E461-4B29-A220-9E515729D54F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{5C5D13DF-E461-4B29-A220-9E515729D54F}"/>
   </bookViews>
   <sheets>
     <sheet name="MetodologiaBase" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="194">
   <si>
     <t>BD</t>
   </si>
@@ -584,6 +584,42 @@
   </si>
   <si>
     <t>Limpie la tarja de la cocina con el paño de microfibra asignado, retire los residuos del colador y deje la tarja seca.</t>
+  </si>
+  <si>
+    <t>MB-MS-001</t>
+  </si>
+  <si>
+    <t>Mop Seco</t>
+  </si>
+  <si>
+    <t>MOP</t>
+  </si>
+  <si>
+    <t>Mop Humedo</t>
+  </si>
+  <si>
+    <t>MB-MH-001</t>
+  </si>
+  <si>
+    <t>FR-MH-001</t>
+  </si>
+  <si>
+    <t>MH</t>
+  </si>
+  <si>
+    <t>Rocía el químico asignado al área (ya diluido) por secciones pequeñas, sin hacer charcos.</t>
+  </si>
+  <si>
+    <t>Revisa el piso antes de empezar y si ves papel o tierra, levántalo primero con el recogedor o una toalla para no arrastrarlo.</t>
+  </si>
+  <si>
+    <t>Pasa la mopa asignada al área en líneas rectas avanzando hacia la salida y sin regresar sobre lo ya limpio.</t>
+  </si>
+  <si>
+    <t>Si al final del recorrido quedó algún sólido, no lo empujes con la mopa, recógelo con el cepillo y el recogedor y luego da un pase rápido solo en esa zona.</t>
+  </si>
+  <si>
+    <t>Si la mopa se ve sucia o deja marcas, cámbiala por una limpia</t>
   </si>
 </sst>
 </file>
@@ -748,7 +784,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -802,6 +838,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -809,6 +851,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -826,65 +871,17 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1267,8 +1264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24225CC1-F221-4701-AFEA-AE4384039BF4}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1282,19 +1279,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="G1" s="27" t="s">
+      <c r="E1" s="23"/>
+      <c r="G1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="27"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -1693,10 +1690,10 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="5" t="s">
         <v>172</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1713,10 +1710,10 @@
       <c r="A22" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -1726,8 +1723,28 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="24" spans="1:5" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="23" spans="1:5" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>184</v>
+      </c>
+    </row>
     <row r="25" spans="1:5" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="3">
@@ -1735,17 +1752,17 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
+  <conditionalFormatting sqref="H3:H8">
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="duplicateValues" dxfId="15" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H8">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1753,10 +1770,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713EC40E-CFCC-4E88-8410-5E71B8B4F27E}">
-  <dimension ref="A1:L1048576"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="82" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A23" zoomScale="82" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1770,23 +1787,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="22" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
       <c r="G1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="27"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -2443,7 +2460,7 @@
       <c r="B26" s="5">
         <v>1</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="5" t="s">
         <v>171</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -2467,7 +2484,7 @@
       <c r="B27" s="5">
         <v>2</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="5" t="s">
         <v>171</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -2491,7 +2508,7 @@
       <c r="B28" s="5">
         <v>3</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="5" t="s">
         <v>171</v>
       </c>
       <c r="D28" s="5" t="s">
@@ -2536,7 +2553,7 @@
       <c r="A30" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B30" s="28">
+      <c r="B30" s="5">
         <v>2</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -2560,7 +2577,7 @@
       <c r="A31" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B31" s="28">
+      <c r="B31" s="5">
         <v>3</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -2579,21 +2596,84 @@
         <v>177</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="33" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="34" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="35" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="36" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="37" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="38" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="39" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="40" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="41" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="42" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="43" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="1048576" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F1048576" s="34"/>
-    </row>
+    <row r="32" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="B32" s="30">
+        <v>1</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="B33" s="30">
+        <v>2</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="B34" s="30">
+        <v>3</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="36" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="37" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="38" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="39" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="40" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="41" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="42" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="43" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:F1"/>
@@ -2618,8 +2698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA2C063-C098-4059-B8EE-5F5C8D6DB356}">
   <dimension ref="A1:Q90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="74" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView topLeftCell="A71" zoomScale="74" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86:F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2634,24 +2714,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="24" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
       <c r="G1" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="4"/>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="27"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -4666,48 +4746,48 @@
       </c>
     </row>
     <row r="81" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A81" s="28" t="s">
+      <c r="A81" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B81" s="28">
+      <c r="B81" s="5">
         <v>1</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="D81" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="E81" s="28" t="s">
+      <c r="D81" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E81" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="F81" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="G81" s="28" t="s">
+      <c r="F81" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G81" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="28" t="s">
+      <c r="A82" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B82" s="28">
+      <c r="B82" s="5">
         <v>2</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D82" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="E82" s="28" t="s">
+      <c r="D82" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E82" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="F82" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="G82" s="28" t="s">
+      <c r="F82" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G82" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4715,54 +4795,54 @@
       <c r="A83" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B83" s="28">
+      <c r="B83" s="5">
         <v>1</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D83" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="E83" s="28" t="s">
+      <c r="D83" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E83" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F83" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="G83" s="28" t="s">
+      <c r="F83" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G83" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I83" s="33"/>
-      <c r="J83" s="31"/>
-      <c r="K83" s="31"/>
-      <c r="L83" s="31"/>
-      <c r="M83" s="31"/>
-      <c r="N83" s="31"/>
-      <c r="O83" s="31"/>
-      <c r="P83" s="31"/>
-      <c r="Q83" s="32"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="19"/>
+      <c r="K83" s="19"/>
+      <c r="L83" s="19"/>
+      <c r="M83" s="19"/>
+      <c r="N83" s="19"/>
+      <c r="O83" s="19"/>
+      <c r="P83" s="19"/>
+      <c r="Q83" s="20"/>
     </row>
     <row r="84" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B84" s="28">
+      <c r="B84" s="5">
         <v>2</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D84" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="E84" s="28" t="s">
+      <c r="D84" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E84" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F84" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="G84" s="28" t="s">
+      <c r="F84" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G84" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4770,30 +4850,140 @@
       <c r="A85" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B85" s="28">
+      <c r="B85" s="5">
         <v>3</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="D85" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="E85" s="28" t="s">
+      <c r="D85" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E85" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F85" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="G85" s="28" t="s">
+      <c r="F85" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G85" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="87" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="88" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="89" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="90" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="86" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A86" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B86" s="30">
+        <v>1</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F86" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A87" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B87" s="30">
+        <v>2</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F87" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A88" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B88" s="30">
+        <v>3</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F88" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A89" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B89" s="30">
+        <v>4</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F89" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A90" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B90" s="30">
+        <v>5</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F90" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:F1"/>
